--- a/132.xlsx
+++ b/132.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>نروژی</t>
   </si>
@@ -166,7 +166,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +183,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -236,10 +242,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -592,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +621,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
@@ -627,9 +633,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
@@ -638,9 +642,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -649,17 +651,13 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
@@ -673,30 +671,40 @@
         <v>2</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -709,12 +717,23 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -724,47 +743,65 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="9"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="K7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="9"/>
       <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="K8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9"/>
       <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
@@ -782,7 +819,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -791,10 +828,8 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -803,10 +838,10 @@
     </row>
     <row r="13" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
@@ -816,11 +851,11 @@
       <c r="E14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -839,7 +874,7 @@
     <row r="16" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -859,12 +894,12 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -879,9 +914,7 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
@@ -891,25 +924,17 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
@@ -918,10 +943,10 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
